--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Calca-Ramp1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Calca-Ramp1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,19 +79,19 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Calca</t>
+  </si>
+  <si>
+    <t>Ramp1</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Calca</t>
-  </si>
-  <si>
-    <t>Ramp1</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,13 +525,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>23</v>
-      </c>
-      <c r="D2" t="s">
-        <v>24</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.3563733333333333</v>
+        <v>0.347953</v>
       </c>
       <c r="H2">
-        <v>1.06912</v>
+        <v>1.043859</v>
       </c>
       <c r="I2">
-        <v>0.7076478281820058</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0.7076478281820059</v>
+        <v>1</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,25 +561,25 @@
         <v>0.2303826666666667</v>
       </c>
       <c r="N2">
-        <v>0.6911480000000001</v>
+        <v>0.691148</v>
       </c>
       <c r="O2">
-        <v>0.01656831128637638</v>
+        <v>0.04658545143903391</v>
       </c>
       <c r="P2">
-        <v>0.01656831128637638</v>
+        <v>0.04658545143903391</v>
       </c>
       <c r="Q2">
-        <v>0.08210223886222222</v>
+        <v>0.08016234001466667</v>
       </c>
       <c r="R2">
-        <v>0.73892014976</v>
+        <v>0.7214610601320001</v>
       </c>
       <c r="S2">
-        <v>0.01172452949844766</v>
+        <v>0.04658545143903391</v>
       </c>
       <c r="T2">
-        <v>0.01172452949844766</v>
+        <v>0.04658545143903391</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,13 +587,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -602,46 +602,46 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.3563733333333333</v>
+        <v>0.347953</v>
       </c>
       <c r="H3">
-        <v>1.06912</v>
+        <v>1.043859</v>
       </c>
       <c r="I3">
-        <v>0.7076478281820058</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0.7076478281820059</v>
+        <v>1</v>
       </c>
       <c r="K3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>2.965799333333333</v>
+        <v>0.8771473333333333</v>
       </c>
       <c r="N3">
-        <v>8.897397999999999</v>
+        <v>2.631442</v>
       </c>
       <c r="O3">
-        <v>0.2132898593395084</v>
+        <v>0.177367095767671</v>
       </c>
       <c r="P3">
-        <v>0.2132898593395085</v>
+        <v>0.177367095767671</v>
       </c>
       <c r="Q3">
-        <v>1.056931794417777</v>
+        <v>0.3052060460753333</v>
       </c>
       <c r="R3">
-        <v>9.512386149759998</v>
+        <v>2.746854414678</v>
       </c>
       <c r="S3">
-        <v>0.1509341057348487</v>
+        <v>0.177367095767671</v>
       </c>
       <c r="T3">
-        <v>0.1509341057348487</v>
+        <v>0.177367095767671</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,10 +649,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
         <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
       </c>
       <c r="D4" t="s">
         <v>20</v>
@@ -664,46 +664,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.3563733333333333</v>
+        <v>0.347953</v>
       </c>
       <c r="H4">
-        <v>1.06912</v>
+        <v>1.043859</v>
       </c>
       <c r="I4">
-        <v>0.7076478281820058</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>0.7076478281820059</v>
+        <v>1</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.4067293333333333</v>
+        <v>0.09376766666666668</v>
       </c>
       <c r="N4">
-        <v>1.220188</v>
+        <v>0.281303</v>
       </c>
       <c r="O4">
-        <v>0.02925054346088105</v>
+        <v>0.01896066724660212</v>
       </c>
       <c r="P4">
-        <v>0.02925054346088106</v>
+        <v>0.01896066724660211</v>
       </c>
       <c r="Q4">
-        <v>0.1449474882844444</v>
+        <v>0.03262674091966667</v>
       </c>
       <c r="R4">
-        <v>1.30452739456</v>
+        <v>0.293640668277</v>
       </c>
       <c r="S4">
-        <v>0.02069908355323585</v>
+        <v>0.01896066724660212</v>
       </c>
       <c r="T4">
-        <v>0.02069908355323585</v>
+        <v>0.01896066724660211</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,13 +711,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.3563733333333333</v>
+        <v>0.347953</v>
       </c>
       <c r="H5">
-        <v>1.06912</v>
+        <v>1.043859</v>
       </c>
       <c r="I5">
-        <v>0.7076478281820058</v>
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>0.7076478281820059</v>
+        <v>1</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.685911333333333</v>
+        <v>2.620343</v>
       </c>
       <c r="N5">
-        <v>8.057734</v>
+        <v>7.861029</v>
       </c>
       <c r="O5">
-        <v>0.1931612985566314</v>
+        <v>0.5298569694773585</v>
       </c>
       <c r="P5">
-        <v>0.1931612985566314</v>
+        <v>0.5298569694773585</v>
       </c>
       <c r="Q5">
-        <v>0.9571871748977776</v>
+        <v>0.911756207879</v>
       </c>
       <c r="R5">
-        <v>8.614684574079998</v>
+        <v>8.205805870911002</v>
       </c>
       <c r="S5">
-        <v>0.1366901734124162</v>
+        <v>0.5298569694773585</v>
       </c>
       <c r="T5">
-        <v>0.1366901734124162</v>
+        <v>0.5298569694773585</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,10 +773,10 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
         <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.3563733333333333</v>
+        <v>0.347953</v>
       </c>
       <c r="H6">
-        <v>1.06912</v>
+        <v>1.043859</v>
       </c>
       <c r="I6">
-        <v>0.7076478281820058</v>
+        <v>1</v>
       </c>
       <c r="J6">
-        <v>0.7076478281820059</v>
+        <v>1</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,338 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.616195333333334</v>
+        <v>1.123737333333333</v>
       </c>
       <c r="N6">
-        <v>22.848586</v>
+        <v>3.371212</v>
       </c>
       <c r="O6">
-        <v>0.5477299873566027</v>
+        <v>0.2272298160693345</v>
       </c>
       <c r="P6">
-        <v>0.5477299873566028</v>
+        <v>0.2272298160693345</v>
       </c>
       <c r="Q6">
-        <v>2.714208918257778</v>
+        <v>0.3910077763453333</v>
       </c>
       <c r="R6">
-        <v>24.42788026432</v>
+        <v>3.519069987108</v>
       </c>
       <c r="S6">
-        <v>0.3875999359830574</v>
+        <v>0.2272298160693345</v>
       </c>
       <c r="T6">
-        <v>0.3875999359830575</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G7">
-        <v>0.1472293333333334</v>
-      </c>
-      <c r="H7">
-        <v>0.441688</v>
-      </c>
-      <c r="I7">
-        <v>0.2923521718179941</v>
-      </c>
-      <c r="J7">
-        <v>0.2923521718179941</v>
-      </c>
-      <c r="K7">
-        <v>2</v>
-      </c>
-      <c r="L7">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M7">
-        <v>0.2303826666666667</v>
-      </c>
-      <c r="N7">
-        <v>0.6911480000000001</v>
-      </c>
-      <c r="O7">
-        <v>0.01656831128637638</v>
-      </c>
-      <c r="P7">
-        <v>0.01656831128637638</v>
-      </c>
-      <c r="Q7">
-        <v>0.0339190864248889</v>
-      </c>
-      <c r="R7">
-        <v>0.3052717778240001</v>
-      </c>
-      <c r="S7">
-        <v>0.004843781787928718</v>
-      </c>
-      <c r="T7">
-        <v>0.004843781787928718</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G8">
-        <v>0.1472293333333334</v>
-      </c>
-      <c r="H8">
-        <v>0.441688</v>
-      </c>
-      <c r="I8">
-        <v>0.2923521718179941</v>
-      </c>
-      <c r="J8">
-        <v>0.2923521718179941</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>2.965799333333333</v>
-      </c>
-      <c r="N8">
-        <v>8.897397999999999</v>
-      </c>
-      <c r="O8">
-        <v>0.2132898593395084</v>
-      </c>
-      <c r="P8">
-        <v>0.2132898593395085</v>
-      </c>
-      <c r="Q8">
-        <v>0.4366526586471111</v>
-      </c>
-      <c r="R8">
-        <v>3.929873927824</v>
-      </c>
-      <c r="S8">
-        <v>0.06235575360465977</v>
-      </c>
-      <c r="T8">
-        <v>0.06235575360465978</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G9">
-        <v>0.1472293333333334</v>
-      </c>
-      <c r="H9">
-        <v>0.441688</v>
-      </c>
-      <c r="I9">
-        <v>0.2923521718179941</v>
-      </c>
-      <c r="J9">
-        <v>0.2923521718179941</v>
-      </c>
-      <c r="K9">
-        <v>2</v>
-      </c>
-      <c r="L9">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M9">
-        <v>0.4067293333333333</v>
-      </c>
-      <c r="N9">
-        <v>1.220188</v>
-      </c>
-      <c r="O9">
-        <v>0.02925054346088105</v>
-      </c>
-      <c r="P9">
-        <v>0.02925054346088106</v>
-      </c>
-      <c r="Q9">
-        <v>0.05988248859377778</v>
-      </c>
-      <c r="R9">
-        <v>0.5389423973440001</v>
-      </c>
-      <c r="S9">
-        <v>0.008551459907645201</v>
-      </c>
-      <c r="T9">
-        <v>0.008551459907645203</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G10">
-        <v>0.1472293333333334</v>
-      </c>
-      <c r="H10">
-        <v>0.441688</v>
-      </c>
-      <c r="I10">
-        <v>0.2923521718179941</v>
-      </c>
-      <c r="J10">
-        <v>0.2923521718179941</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>2.685911333333333</v>
-      </c>
-      <c r="N10">
-        <v>8.057734</v>
-      </c>
-      <c r="O10">
-        <v>0.1931612985566314</v>
-      </c>
-      <c r="P10">
-        <v>0.1931612985566314</v>
-      </c>
-      <c r="Q10">
-        <v>0.3954449349991112</v>
-      </c>
-      <c r="R10">
-        <v>3.559004414992</v>
-      </c>
-      <c r="S10">
-        <v>0.05647112514421516</v>
-      </c>
-      <c r="T10">
-        <v>0.05647112514421516</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G11">
-        <v>0.1472293333333334</v>
-      </c>
-      <c r="H11">
-        <v>0.441688</v>
-      </c>
-      <c r="I11">
-        <v>0.2923521718179941</v>
-      </c>
-      <c r="J11">
-        <v>0.2923521718179941</v>
-      </c>
-      <c r="K11">
-        <v>3</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>7.616195333333334</v>
-      </c>
-      <c r="N11">
-        <v>22.848586</v>
-      </c>
-      <c r="O11">
-        <v>0.5477299873566027</v>
-      </c>
-      <c r="P11">
-        <v>0.5477299873566028</v>
-      </c>
-      <c r="Q11">
-        <v>1.121327361463111</v>
-      </c>
-      <c r="R11">
-        <v>10.091946253168</v>
-      </c>
-      <c r="S11">
-        <v>0.1601300513735453</v>
-      </c>
-      <c r="T11">
-        <v>0.1601300513735453</v>
+        <v>0.2272298160693345</v>
       </c>
     </row>
   </sheetData>
